--- a/meta/en/9-b-1.xlsx
+++ b/meta/en/9-b-1.xlsx
@@ -165,20 +165,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,37 +253,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -607,7 +591,7 @@
   <sheetPr codeName="Worksheet____1"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -628,7 +612,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -636,7 +620,7 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -644,7 +628,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -700,27 +684,27 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -752,19 +736,19 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
     </row>
